--- a/experimental_data/GEC_aging/Lange2011.xlsx
+++ b/experimental_data/GEC_aging/Lange2011.xlsx
@@ -15,12 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="14">
   <si>
     <t>Lange2011 – Age-dependency of galactose elimination capacity in children</t>
   </si>
   <si>
     <t>Figure 1</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>sex [U]</t>
   </si>
   <si>
     <t>status</t>
@@ -32,10 +38,19 @@
     <t>Galactose elimination capacity [µmol/min/kgbw]</t>
   </si>
   <si>
+    <t>sex</t>
+  </si>
+  <si>
     <t>age</t>
   </si>
   <si>
-    <t>GEC</t>
+    <t>GECkg</t>
+  </si>
+  <si>
+    <t>lan2011</t>
+  </si>
+  <si>
+    <t>U</t>
   </si>
   <si>
     <t>healthy</t>
@@ -86,6 +101,7 @@
       <family val="2"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -157,7 +173,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -176,6 +192,10 @@
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="5" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
   </cellXfs>
@@ -234,7 +254,7 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFDD4814"/>
+      <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FF003366"/>
@@ -250,7 +270,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -264,7 +284,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Lange2011!$A$6</c:f>
+              <c:f>Lange2011!$C$6:$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -275,18 +295,18 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:srgbClr val="99ccff"/>
             </a:solidFill>
             <a:ln w="28800">
               <a:noFill/>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Lange2011!$B$6:$B$15</c:f>
+              <c:f>Lange2011!$D$6:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -325,7 +345,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Lange2011!$C$6:$C$15</c:f>
+              <c:f>Lange2011!$E$6:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -368,7 +388,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Lange2011!$A$16</c:f>
+              <c:f>Lange2011!$C$16:$C$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -379,18 +399,18 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="dd4814"/>
+              <a:srgbClr val="99ccff"/>
             </a:solidFill>
             <a:ln w="28800">
               <a:noFill/>
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Lange2011!$B$16:$B$45</c:f>
+              <c:f>Lange2011!$D$16:$D$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -489,7 +509,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Lange2011!$C$16:$C$45</c:f>
+              <c:f>Lange2011!$E$16:$E$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -587,11 +607,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="20793125"/>
-        <c:axId val="15313897"/>
+        <c:axId val="91592444"/>
+        <c:axId val="94881076"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="20793125"/>
+        <c:axId val="91592444"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -607,7 +627,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900"/>
+                  <a:rPr b="1" sz="900"/>
                   <a:t>Age [years]</a:t>
                 </a:r>
               </a:p>
@@ -625,11 +645,11 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="15313897"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="94881076"/>
+        <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="15313897"/>
+        <c:axId val="94881076"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -646,7 +666,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900"/>
+                  <a:rPr b="1" sz="900"/>
                   <a:t>GEC [µmol/min/kgbw]</a:t>
                 </a:r>
               </a:p>
@@ -664,8 +684,8 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="20793125"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="91592444"/>
+        <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -703,16 +723,16 @@
 <xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>875160</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>847080</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>542880</xdr:rowOff>
+      <xdr:rowOff>477000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>427320</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>78480</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>398880</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>3960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -727,8 +747,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4317480" y="1074960"/>
-          <a:ext cx="3917160" cy="3644640"/>
+          <a:off x="6446880" y="953640"/>
+          <a:ext cx="3916800" cy="3644280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -742,16 +762,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>949680</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>599400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>93240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>317160</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>17280</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>779040</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -766,8 +786,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4392000" y="4819320"/>
-          <a:ext cx="6983640" cy="1068480"/>
+          <a:off x="6199200" y="4840920"/>
+          <a:ext cx="6983280" cy="1068120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -781,16 +801,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>334440</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361800</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>221040</xdr:rowOff>
+      <xdr:rowOff>212400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1004040</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1031040</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>149400</xdr:rowOff>
+      <xdr:rowOff>140040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -798,8 +818,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8141760" y="753120"/>
-        <a:ext cx="4733280" cy="3883680"/>
+        <a:off x="10326600" y="689040"/>
+        <a:ext cx="4733280" cy="3737880"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -817,37 +837,39 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100">
-      <selection activeCell="O21" activeCellId="0" pane="topLeft" sqref="O21"/>
+      <selection activeCell="J45" activeCellId="0" pane="topLeft" sqref="J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.7448979591837"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.5969387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.7040816326531"/>
-    <col collapsed="false" hidden="false" max="13" min="6" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="20.3316326530612"/>
-    <col collapsed="false" hidden="false" max="24" min="15" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="30.3826530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.7142857142857"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.3265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.7448979591837"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.0561224489796"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.5969387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.7040816326531"/>
+    <col collapsed="false" hidden="false" max="15" min="8" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="20.3316326530612"/>
+    <col collapsed="false" hidden="false" max="26" min="17" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="30.3826530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="1" s="1">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1" s="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="3">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.35" outlineLevel="0" r="3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="66.65" outlineLevel="0" r="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="57.45" outlineLevel="0" r="4">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -857,460 +879,710 @@
       <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="5">
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="5">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
       <c r="A6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5" t="n">
         <v>0.46905538</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="E6" s="5" t="n">
         <v>84.664375</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
       <c r="A7" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5" t="n">
         <v>0.76221496</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="E7" s="5" t="n">
         <v>72.27194</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
       <c r="A8" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5" t="n">
         <v>7.4169383</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="E8" s="5" t="n">
         <v>58.48537</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
       <c r="A9" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="5" t="n">
         <v>10.583062</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="E9" s="5" t="n">
         <v>49.965576</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
       <c r="A10" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="5" t="n">
         <v>11.374593</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="E10" s="5" t="n">
         <v>52.44406</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
       <c r="A11" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="5" t="n">
         <v>13.543974</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="E11" s="5" t="n">
         <v>41.755592</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
       <c r="A12" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="5" t="n">
         <v>13.7785015</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="E12" s="5" t="n">
         <v>40.20654</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
       <c r="A13" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5" t="n">
         <v>15.039088</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="E13" s="5" t="n">
         <v>40.20654</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
       <c r="A14" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="5" t="n">
         <v>16.76873</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="E14" s="5" t="n">
         <v>42.22031</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
       <c r="A15" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="5" t="n">
         <v>17.06189</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="E15" s="5" t="n">
         <v>42.065403</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
       <c r="A16" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="5" t="n">
         <v>0.26384366</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="E16" s="5" t="n">
         <v>96.127365</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
       <c r="A17" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="5" t="n">
         <v>0.4397394</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="E17" s="5" t="n">
         <v>67.005165</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
       <c r="A18" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="5" t="n">
         <v>0.55700326</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="E18" s="5" t="n">
         <v>62.82272</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
       <c r="A19" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="5" t="n">
         <v>0.9674267</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="E19" s="5" t="n">
         <v>71.49742</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
       <c r="A20" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="5" t="n">
         <v>2.1400652</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="E20" s="5" t="n">
         <v>76.7642</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
       <c r="A21" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="5" t="n">
         <v>3.1954398</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="E21" s="5" t="n">
         <v>57.55594</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
       <c r="A22" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="5" t="n">
         <v>2.990228</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="E22" s="5" t="n">
         <v>44.388985</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
       <c r="A23" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="5" t="n">
         <v>3.9283388</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="E23" s="5" t="n">
         <v>31.22203</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
       <c r="A24" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="5" t="n">
         <v>3.9869707</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="E24" s="5" t="n">
         <v>44.8537</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
       <c r="A25" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="5" t="n">
         <v>4.42671</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="E25" s="5" t="n">
         <v>48.416523</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
       <c r="A26" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="5" t="n">
         <v>5.7459283</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="E26" s="5" t="n">
         <v>55.85198</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
       <c r="A27" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="5" t="n">
         <v>6.1856675</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="E27" s="5" t="n">
         <v>51.20482</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
       <c r="A28" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="5" t="n">
         <v>6.039088</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="E28" s="5" t="n">
         <v>40.671257</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
       <c r="A29" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="5" t="n">
         <v>7.4462543</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="E29" s="5" t="n">
         <v>28.123924</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
       <c r="A30" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="5" t="n">
         <v>8.912052</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="E30" s="5" t="n">
         <v>34.165234</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
       <c r="A31" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="5" t="n">
         <v>8.589577</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="E31" s="5" t="n">
         <v>40.82616</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
       <c r="A32" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="5" t="n">
         <v>8.355049</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="E32" s="5" t="n">
         <v>43.924267</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
       <c r="A33" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="5" t="n">
         <v>11.140065</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="E33" s="5" t="n">
         <v>50.275387</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
       <c r="A34" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="5" t="n">
         <v>12.283387</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="E34" s="5" t="n">
         <v>51.20482</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
       <c r="A35" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="5" t="n">
         <v>12.166123</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="E35" s="5" t="n">
         <v>49.19105</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
       <c r="A36" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="5" t="n">
         <v>11.257329</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="E36" s="5" t="n">
         <v>40.051636</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
       <c r="A37" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="5" t="n">
         <v>11.169381</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="E37" s="5" t="n">
         <v>29.672977</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
       <c r="A38" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="5" t="n">
         <v>11.60912</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="E38" s="5" t="n">
         <v>27.969019</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
       <c r="A39" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="5" t="n">
         <v>12.899023</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="E39" s="5" t="n">
         <v>24.406197</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
       <c r="A40" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="5" t="n">
         <v>12.869707</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="E40" s="5" t="n">
         <v>32.151463</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
       <c r="A41" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B41" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="5" t="n">
         <v>14.159609</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="E41" s="5" t="n">
         <v>37.108433</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
       <c r="A42" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="5" t="n">
         <v>15.596091</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="E42" s="5" t="n">
         <v>34.475044</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
       <c r="A43" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="5" t="n">
         <v>15.947883</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="E43" s="5" t="n">
         <v>19.294321</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
       <c r="A44" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="5" t="n">
         <v>15.39088</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="E44" s="5" t="n">
         <v>52.90878</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
       <c r="A45" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="5" t="n">
         <v>16.094463</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="E45" s="5" t="n">
         <v>47.7969</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="104"/>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="105"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
